--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/COLORADO_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/COLORADO_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1157"/>
+  <dimension ref="A1:D1151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="19">
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="21">
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="28">
@@ -791,20 +791,20 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="33">
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="34">
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="38">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="39">
@@ -895,13 +895,13 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C40">
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="42">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="48">
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="49">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="50">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C54">
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="58">
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="59">
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="60">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C61">
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="66">
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="69">
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="70">
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="74">
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="77">
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="78">
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="80">
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="D81">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="82">
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="103">
@@ -1745,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="105">
@@ -1758,7 +1758,7 @@
         <v>10</v>
       </c>
       <c r="D105">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="106">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C107">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C110">
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="117">
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="119">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="121">
@@ -2031,7 +2031,7 @@
         <v>10</v>
       </c>
       <c r="D126">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="127">
@@ -2057,7 +2057,7 @@
         <v>10</v>
       </c>
       <c r="D128">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="129">
@@ -2096,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="D131">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="132">
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="133">
@@ -2128,7 +2128,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C134">
@@ -2141,20 +2141,20 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C136">
@@ -2187,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="D138">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="139">
@@ -2258,7 +2258,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C144">
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="147">
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="149">
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="150">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="152">
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="156">
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="157">
@@ -2458,14 +2458,14 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="160">
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="164">
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="168">
@@ -2606,7 +2606,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C170">
@@ -2632,7 +2632,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2689,14 +2689,14 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="177">
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="184">
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="188">
@@ -2876,7 +2876,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C190">
@@ -2948,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="196">
@@ -3058,7 +3058,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C204">
@@ -3097,7 +3097,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C207">
@@ -3117,7 +3117,7 @@
         <v>10</v>
       </c>
       <c r="D208">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="209">
@@ -3188,7 +3188,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C214">
@@ -3201,7 +3201,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C215">
@@ -3214,7 +3214,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C216">
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="221">
@@ -3344,12 +3344,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C226">
@@ -3375,20 +3375,20 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C229">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C233">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="237">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C238">
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="241">
@@ -3577,13 +3577,13 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C244">
@@ -3603,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="246">
@@ -3642,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="249">
@@ -3668,13 +3668,13 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C251">
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="257">
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="259">
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="260">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C262">
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="268">
@@ -3915,13 +3915,13 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C270">
@@ -3934,14 +3934,14 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="272">
@@ -3967,7 +3967,7 @@
         <v>10</v>
       </c>
       <c r="D273">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="274">
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="275">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="276">
@@ -4038,7 +4038,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C279">
@@ -4058,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="281">
@@ -4084,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="D282">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="283">
@@ -4110,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="285">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C286">
@@ -4175,13 +4175,13 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C290">
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="297">
@@ -4298,7 +4298,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4336,13 +4336,13 @@
         <v>10</v>
       </c>
       <c r="D301">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C302">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C303">
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="308">
@@ -4440,7 +4440,7 @@
         <v>10</v>
       </c>
       <c r="D309">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="310">
@@ -4453,13 +4453,13 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C311">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C315">
@@ -4570,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="D319">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="320">
@@ -4583,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="D320">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="321">
@@ -4615,7 +4615,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C323">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C327">
@@ -4693,7 +4693,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C329">
@@ -4719,7 +4719,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C331">
@@ -4732,7 +4732,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C332">
@@ -4745,14 +4745,14 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C333">
         <v>10</v>
       </c>
       <c r="D333">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="334">
@@ -4778,13 +4778,13 @@
         <v>1</v>
       </c>
       <c r="D335">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C336">
@@ -4859,14 +4859,14 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C341">
         <v>105</v>
       </c>
       <c r="D341">
-        <v>0.009847134952639971</v>
+        <v>0.009847134952639973</v>
       </c>
     </row>
     <row r="342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C343">
@@ -4905,7 +4905,7 @@
         <v>10</v>
       </c>
       <c r="D344">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C346">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C349">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C354">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C359">
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="D361">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C364">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C370">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C371">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C373">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C375">
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="D380">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="381">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C388">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C390">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C393">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C395">
@@ -5690,13 +5690,13 @@
         <v>1</v>
       </c>
       <c r="D404">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C405">
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="D406">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="407">
@@ -5755,13 +5755,13 @@
         <v>1</v>
       </c>
       <c r="D409">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C410">
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="D412">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="413">
@@ -5846,20 +5846,20 @@
         <v>1</v>
       </c>
       <c r="D416">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C417">
         <v>1</v>
       </c>
       <c r="D417">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="418">
@@ -5891,14 +5891,14 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C420">
         <v>1</v>
       </c>
       <c r="D420">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="421">
@@ -5930,20 +5930,20 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C423">
         <v>1</v>
       </c>
       <c r="D423">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C424">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C425">
@@ -5976,20 +5976,20 @@
         <v>1</v>
       </c>
       <c r="D426">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C427">
         <v>1</v>
       </c>
       <c r="D427">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="428">
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="D428">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="429">
@@ -6028,26 +6028,26 @@
         <v>1</v>
       </c>
       <c r="D430">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C431">
         <v>1</v>
       </c>
       <c r="D431">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,14 +6060,14 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C433">
         <v>1</v>
       </c>
       <c r="D433">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="434">
@@ -6093,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="D435">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="436">
@@ -6119,13 +6119,13 @@
         <v>1</v>
       </c>
       <c r="D437">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C438">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C440">
@@ -6164,14 +6164,14 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C441">
         <v>1</v>
       </c>
       <c r="D441">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="442">
@@ -6221,7 +6221,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C445">
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="D446">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="447">
@@ -6254,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="D447">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="448">
@@ -6286,7 +6286,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C450">
@@ -6312,7 +6312,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C452">
@@ -6332,13 +6332,13 @@
         <v>1</v>
       </c>
       <c r="D453">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C454">
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="D455">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="456">
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="D457">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="458">
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="D459">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="460">
@@ -6423,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="D460">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="461">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="D464">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="465">
@@ -6488,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="D465">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="466">
@@ -6501,13 +6501,13 @@
         <v>1</v>
       </c>
       <c r="D466">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C467">
@@ -6559,7 +6559,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C471">
@@ -6572,20 +6572,20 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C472">
         <v>1</v>
       </c>
       <c r="D472">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C473">
@@ -6605,13 +6605,13 @@
         <v>10</v>
       </c>
       <c r="D474">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C475">
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="D476">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="477">
@@ -6676,7 +6676,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C480">
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="D482">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="483">
@@ -6754,7 +6754,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C486">
@@ -6774,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="D487">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="488">
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="D488">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="489">
@@ -6819,7 +6819,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C491">
@@ -6832,7 +6832,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C492">
@@ -6871,14 +6871,14 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C495">
         <v>1</v>
       </c>
       <c r="D495">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="496">
@@ -6897,7 +6897,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C497">
@@ -6910,7 +6910,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C498">
@@ -6949,7 +6949,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C501">
@@ -6962,7 +6962,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C502">
@@ -7021,13 +7021,13 @@
         <v>10</v>
       </c>
       <c r="D506">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C507">
@@ -7053,20 +7053,20 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C509">
         <v>1</v>
       </c>
       <c r="D509">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C510">
@@ -7164,13 +7164,13 @@
         <v>1</v>
       </c>
       <c r="D517">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C518">
@@ -7183,7 +7183,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C519">
@@ -7203,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="D520">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="521">
@@ -7229,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="D522">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="523">
@@ -7242,13 +7242,13 @@
         <v>10</v>
       </c>
       <c r="D523">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C524">
@@ -7261,7 +7261,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C525">
@@ -7300,20 +7300,20 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C528">
         <v>1</v>
       </c>
       <c r="D528">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C529">
@@ -7390,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="D534">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="535">
@@ -7403,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="D535">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="536">
@@ -7416,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="D536">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="537">
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="D541">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="542">
@@ -7520,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="D544">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="545">
@@ -7533,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="D545">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="546">
@@ -7559,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="D547">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="548">
@@ -7572,13 +7572,13 @@
         <v>10</v>
       </c>
       <c r="D548">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C549">
@@ -7611,7 +7611,7 @@
         <v>1</v>
       </c>
       <c r="D551">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="552">
@@ -7650,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="D554">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="555">
@@ -7676,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="D556">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="557">
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="D557">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="558">
@@ -7741,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="D561">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="562">
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="D564">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="565">
@@ -7819,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="D567">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="568">
@@ -7832,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="D568">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="569">
@@ -8001,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="D581">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="582">
@@ -8066,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="D586">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="587">
@@ -8144,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="D592">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="593">
@@ -8157,7 +8157,7 @@
         <v>1</v>
       </c>
       <c r="D593">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="594">
@@ -8183,7 +8183,7 @@
         <v>10</v>
       </c>
       <c r="D595">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="596">
@@ -8209,7 +8209,7 @@
         <v>10</v>
       </c>
       <c r="D597">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="598">
@@ -8222,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="D598">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="599">
@@ -8267,7 +8267,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C602">
@@ -8313,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="D605">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="606">
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="D611">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="612">
@@ -8469,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="D617">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="618">
@@ -8482,7 +8482,7 @@
         <v>10</v>
       </c>
       <c r="D618">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="619">
@@ -8532,14 +8532,14 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C622">
         <v>1</v>
       </c>
       <c r="D622">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="623">
@@ -8623,7 +8623,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C629">
@@ -8643,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="D630">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="631">
@@ -8662,20 +8662,20 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C632">
         <v>1</v>
       </c>
       <c r="D632">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C633">
@@ -8708,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="D635">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="636">
@@ -8797,7 +8797,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C642">
@@ -8836,7 +8836,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C645">
@@ -8856,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="D646">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="647">
@@ -8914,14 +8914,14 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C651">
         <v>1</v>
       </c>
       <c r="D651">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="652">
@@ -9010,14 +9010,14 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C658">
         <v>1</v>
       </c>
       <c r="D658">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="659">
@@ -9043,7 +9043,7 @@
         <v>1</v>
       </c>
       <c r="D660">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="661">
@@ -9075,14 +9075,14 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C663">
         <v>1</v>
       </c>
       <c r="D663">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="664">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C665">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C667">
@@ -9152,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="D668">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="669">
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="D669">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="670">
@@ -9184,7 +9184,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C671">
@@ -9204,7 +9204,7 @@
         <v>1</v>
       </c>
       <c r="D672">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="673">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C674">
@@ -9236,14 +9236,14 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C675">
         <v>1</v>
       </c>
       <c r="D675">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="676">
@@ -9256,13 +9256,13 @@
         <v>1</v>
       </c>
       <c r="D676">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C677">
@@ -9275,7 +9275,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C678">
@@ -9295,26 +9295,26 @@
         <v>1</v>
       </c>
       <c r="D679">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C680">
         <v>1</v>
       </c>
       <c r="D680">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C681">
@@ -9347,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="D683">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="684">
@@ -9360,7 +9360,7 @@
         <v>1</v>
       </c>
       <c r="D684">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="685">
@@ -9379,7 +9379,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C686">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C687">
@@ -9405,7 +9405,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C688">
@@ -9418,14 +9418,14 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C689">
         <v>1</v>
       </c>
       <c r="D689">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="690">
@@ -9438,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="D690">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="691">
@@ -9477,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="D693">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="694">
@@ -9490,20 +9490,20 @@
         <v>1</v>
       </c>
       <c r="D694">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C695">
         <v>1</v>
       </c>
       <c r="D695">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="696">
@@ -9529,7 +9529,7 @@
         <v>1</v>
       </c>
       <c r="D697">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="698">
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="D698">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="699">
@@ -9555,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="D699">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="700">
@@ -9568,7 +9568,7 @@
         <v>1</v>
       </c>
       <c r="D700">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="701">
@@ -9581,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="D701">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="702">
@@ -9594,7 +9594,7 @@
         <v>1</v>
       </c>
       <c r="D702">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="703">
@@ -9607,7 +9607,7 @@
         <v>1</v>
       </c>
       <c r="D703">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="704">
@@ -9633,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="D705">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="706">
@@ -9659,7 +9659,7 @@
         <v>1</v>
       </c>
       <c r="D707">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="708">
@@ -9698,7 +9698,7 @@
         <v>1</v>
       </c>
       <c r="D710">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="711">
@@ -9711,7 +9711,7 @@
         <v>1</v>
       </c>
       <c r="D711">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="712">
@@ -9750,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="D714">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="715">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="D715">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="716">
@@ -9776,7 +9776,7 @@
         <v>1</v>
       </c>
       <c r="D716">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="717">
@@ -9789,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="D717">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="718">
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="D719">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="720">
@@ -9828,7 +9828,7 @@
         <v>1</v>
       </c>
       <c r="D720">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="721">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="D721">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="722">
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="D722">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="723">
@@ -9867,7 +9867,7 @@
         <v>1</v>
       </c>
       <c r="D723">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="724">
@@ -9880,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="D724">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="725">
@@ -9899,7 +9899,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C726">
@@ -9932,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="D728">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="729">
@@ -9945,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="D729">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="730">
@@ -9984,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="D732">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="733">
@@ -9997,20 +9997,20 @@
         <v>1</v>
       </c>
       <c r="D733">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C734">
         <v>1</v>
       </c>
       <c r="D734">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="735">
@@ -10036,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="D736">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="737">
@@ -10049,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="D737">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="738">
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="D738">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="739">
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="D739">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="740">
@@ -10101,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="D741">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="742">
@@ -10127,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="D743">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="744">
@@ -10140,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="D744">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="745">
@@ -10192,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="D748">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="749">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="D749">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="750">
@@ -10218,7 +10218,7 @@
         <v>1</v>
       </c>
       <c r="D750">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="751">
@@ -10231,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="D751">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="752">
@@ -10270,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="D754">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="755">
@@ -10309,7 +10309,7 @@
         <v>1</v>
       </c>
       <c r="D757">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="758">
@@ -10322,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="D758">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="759">
@@ -10348,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="D760">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="761">
@@ -10393,33 +10393,33 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C764">
         <v>1</v>
       </c>
       <c r="D764">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C765">
         <v>1</v>
       </c>
       <c r="D765">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C766">
@@ -10432,7 +10432,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C767">
@@ -10445,14 +10445,14 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C768">
         <v>1</v>
       </c>
       <c r="D768">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="769">
@@ -10465,52 +10465,52 @@
         <v>1</v>
       </c>
       <c r="D769">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C770">
         <v>1</v>
       </c>
       <c r="D770">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C771">
         <v>1</v>
       </c>
       <c r="D771">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C772">
         <v>1</v>
       </c>
       <c r="D772">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C773">
@@ -10561,7 +10561,7 @@
         <v>1</v>
       </c>
       <c r="D776">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="777">
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="D778">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="779">
@@ -10600,7 +10600,7 @@
         <v>1</v>
       </c>
       <c r="D779">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="780">
@@ -10652,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="D783">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="784">
@@ -10723,7 +10723,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C789">
@@ -10743,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="D790">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="791">
@@ -10756,7 +10756,7 @@
         <v>1</v>
       </c>
       <c r="D791">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="792">
@@ -10782,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="D793">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="794">
@@ -10795,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="D794">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="795">
@@ -10808,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="D795">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="796">
@@ -10821,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="D796">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="797">
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="D798">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="799">
@@ -10892,7 +10892,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C802">
@@ -10905,14 +10905,14 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C803">
         <v>1</v>
       </c>
       <c r="D803">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="804">
@@ -10925,20 +10925,20 @@
         <v>1</v>
       </c>
       <c r="D804">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C805">
         <v>1</v>
       </c>
       <c r="D805">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="806">
@@ -10964,20 +10964,20 @@
         <v>1</v>
       </c>
       <c r="D807">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C808">
         <v>1</v>
       </c>
       <c r="D808">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="809">
@@ -11003,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="D810">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="811">
@@ -11029,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="D812">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="813">
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="D814">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="815">
@@ -11081,7 +11081,7 @@
         <v>1</v>
       </c>
       <c r="D816">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="817">
@@ -11094,13 +11094,13 @@
         <v>1</v>
       </c>
       <c r="D817">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C818">
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="D820">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="821">
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="D824">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="825">
@@ -11211,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="D826">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="827">
@@ -11224,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="D827">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="828">
@@ -11243,7 +11243,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C829">
@@ -11269,7 +11269,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C831">
@@ -11295,7 +11295,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C833">
@@ -11341,26 +11341,26 @@
         <v>1</v>
       </c>
       <c r="D836">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C837">
         <v>1</v>
       </c>
       <c r="D837">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C838">
@@ -11399,7 +11399,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C841">
@@ -11412,7 +11412,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C842">
@@ -11432,7 +11432,7 @@
         <v>10</v>
       </c>
       <c r="D843">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="844">
@@ -11458,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="D845">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="846">
@@ -11477,7 +11477,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C847">
@@ -11510,7 +11510,7 @@
         <v>1</v>
       </c>
       <c r="D849">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="850">
@@ -11523,7 +11523,7 @@
         <v>1</v>
       </c>
       <c r="D850">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="851">
@@ -11549,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="D852">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="853">
@@ -11562,7 +11562,7 @@
         <v>1</v>
       </c>
       <c r="D853">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="854">
@@ -11653,7 +11653,7 @@
         <v>1</v>
       </c>
       <c r="D860">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="861">
@@ -11666,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="D861">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="862">
@@ -11692,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="D863">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="864">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C865">
@@ -11736,7 +11736,7 @@
         <v>1</v>
       </c>
       <c r="D866">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="867">
@@ -11762,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="D868">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="869">
@@ -11788,13 +11788,13 @@
         <v>1</v>
       </c>
       <c r="D870">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C871">
@@ -11807,7 +11807,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C872">
@@ -11833,14 +11833,14 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C874">
         <v>1</v>
       </c>
       <c r="D874">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="875">
@@ -11872,7 +11872,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C877">
@@ -11936,7 +11936,7 @@
         <v>1</v>
       </c>
       <c r="D881">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="882">
@@ -11980,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="D884">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="885">
@@ -11993,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="D885">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="886">
@@ -12006,7 +12006,7 @@
         <v>1</v>
       </c>
       <c r="D886">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="887">
@@ -12038,7 +12038,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C889">
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="D890">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="891">
@@ -12084,7 +12084,7 @@
         <v>1</v>
       </c>
       <c r="D892">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="893">
@@ -12116,7 +12116,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C895">
@@ -12136,7 +12136,7 @@
         <v>1</v>
       </c>
       <c r="D896">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="897">
@@ -12181,7 +12181,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C900">
@@ -12214,13 +12214,13 @@
         <v>1</v>
       </c>
       <c r="D902">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C903">
@@ -12240,7 +12240,7 @@
         <v>10</v>
       </c>
       <c r="D904">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="905">
@@ -12266,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="D906">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="907">
@@ -12279,13 +12279,13 @@
         <v>1</v>
       </c>
       <c r="D907">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C908">
@@ -12414,7 +12414,7 @@
         <v>1</v>
       </c>
       <c r="D917">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="918">
@@ -12588,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="D930">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="931">
@@ -12692,7 +12692,7 @@
         <v>1</v>
       </c>
       <c r="D938">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="939">
@@ -12705,7 +12705,7 @@
         <v>1</v>
       </c>
       <c r="D939">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="940">
@@ -12718,7 +12718,7 @@
         <v>1</v>
       </c>
       <c r="D940">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="941">
@@ -12731,13 +12731,13 @@
         <v>1</v>
       </c>
       <c r="D941">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C942">
@@ -12809,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="D947">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="948">
@@ -12822,7 +12822,7 @@
         <v>1</v>
       </c>
       <c r="D948">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="949">
@@ -12866,7 +12866,7 @@
         <v>10</v>
       </c>
       <c r="D951">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="952">
@@ -12879,7 +12879,7 @@
         <v>1</v>
       </c>
       <c r="D952">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="953">
@@ -12918,7 +12918,7 @@
         <v>1</v>
       </c>
       <c r="D955">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="956">
@@ -12944,20 +12944,20 @@
         <v>1</v>
       </c>
       <c r="D957">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C958">
         <v>1</v>
       </c>
       <c r="D958">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="959">
@@ -12970,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="D959">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="960">
@@ -12983,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="D960">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="961">
@@ -13053,7 +13053,7 @@
         <v>1</v>
       </c>
       <c r="D965">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="966">
@@ -13092,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="D968">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="969">
@@ -13124,7 +13124,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C971">
@@ -13170,7 +13170,7 @@
         <v>1</v>
       </c>
       <c r="D974">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="975">
@@ -13183,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="D975">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="976">
@@ -13207,14 +13207,14 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>Amaxac de Guerero</t>
+          <t>Amaxac De Guerero</t>
         </is>
       </c>
       <c r="C977">
         <v>1</v>
       </c>
       <c r="D977">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="978">
@@ -13240,20 +13240,20 @@
         <v>1</v>
       </c>
       <c r="D979">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C980">
         <v>1</v>
       </c>
       <c r="D980">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="981">
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="D981">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="982">
@@ -13279,7 +13279,7 @@
         <v>1</v>
       </c>
       <c r="D982">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="983">
@@ -13292,7 +13292,7 @@
         <v>1</v>
       </c>
       <c r="D983">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="984">
@@ -13305,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="D984">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="985">
@@ -13331,7 +13331,7 @@
         <v>1</v>
       </c>
       <c r="D986">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="987">
@@ -13344,7 +13344,7 @@
         <v>1</v>
       </c>
       <c r="D987">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="988">
@@ -13370,7 +13370,7 @@
         <v>1</v>
       </c>
       <c r="D989">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="990">
@@ -13453,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="D995">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="996">
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="D997">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="998">
@@ -13505,13 +13505,13 @@
         <v>1</v>
       </c>
       <c r="D999">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1000">
@@ -13544,7 +13544,7 @@
         <v>1</v>
       </c>
       <c r="D1002">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1003">
@@ -13557,7 +13557,7 @@
         <v>1</v>
       </c>
       <c r="D1003">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1004">
@@ -13596,13 +13596,13 @@
         <v>1</v>
       </c>
       <c r="D1006">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1007">
@@ -13622,13 +13622,13 @@
         <v>1</v>
       </c>
       <c r="D1008">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1009">
@@ -13661,7 +13661,7 @@
         <v>1</v>
       </c>
       <c r="D1011">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1012">
@@ -13687,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="D1013">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1014">
@@ -13700,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="D1014">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1015">
@@ -13713,7 +13713,7 @@
         <v>1</v>
       </c>
       <c r="D1015">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1016">
@@ -13745,7 +13745,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1018">
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="D1020">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1021">
@@ -13856,7 +13856,7 @@
         <v>1</v>
       </c>
       <c r="D1026">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1027">
@@ -13875,7 +13875,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1028">
@@ -13908,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="D1030">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1031">
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="D1031">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1032">
@@ -13934,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="D1032">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1033">
@@ -13960,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="D1034">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1035">
@@ -14005,33 +14005,33 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1038">
         <v>1</v>
       </c>
       <c r="D1038">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1039">
         <v>1</v>
       </c>
       <c r="D1039">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1040">
@@ -14044,14 +14044,14 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1041">
         <v>1</v>
       </c>
       <c r="D1041">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1042">
@@ -14129,7 +14129,7 @@
         <v>1</v>
       </c>
       <c r="D1047">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1048">
@@ -14200,7 +14200,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1053">
@@ -14213,14 +14213,14 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1054">
         <v>1</v>
       </c>
       <c r="D1054">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1055">
@@ -14252,14 +14252,14 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1057">
         <v>1</v>
       </c>
       <c r="D1057">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1058">
@@ -14272,7 +14272,7 @@
         <v>1</v>
       </c>
       <c r="D1058">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1059">
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="D1060">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1061">
@@ -14330,14 +14330,14 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1063">
         <v>1</v>
       </c>
       <c r="D1063">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1064">
@@ -14350,20 +14350,20 @@
         <v>1</v>
       </c>
       <c r="D1064">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1065">
         <v>1</v>
       </c>
       <c r="D1065">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1066">
@@ -14382,14 +14382,14 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1067">
         <v>1</v>
       </c>
       <c r="D1067">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1068">
@@ -14415,7 +14415,7 @@
         <v>1</v>
       </c>
       <c r="D1069">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1070">
@@ -14428,7 +14428,7 @@
         <v>1</v>
       </c>
       <c r="D1070">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1071">
@@ -14441,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="D1071">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1072">
@@ -14454,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="D1072">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1073">
@@ -14480,7 +14480,7 @@
         <v>10</v>
       </c>
       <c r="D1074">
-        <v>0.0009378223764419019</v>
+        <v>0.000937822376441902</v>
       </c>
     </row>
     <row r="1075">
@@ -14519,7 +14519,7 @@
         <v>1</v>
       </c>
       <c r="D1077">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1078">
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="D1079">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1080">
@@ -14558,7 +14558,7 @@
         <v>1</v>
       </c>
       <c r="D1080">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1081">
@@ -14584,20 +14584,20 @@
         <v>1</v>
       </c>
       <c r="D1082">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1083">
         <v>1</v>
       </c>
       <c r="D1083">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1084">
@@ -14636,20 +14636,20 @@
         <v>1</v>
       </c>
       <c r="D1086">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1087">
         <v>1</v>
       </c>
       <c r="D1087">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1088">
@@ -14706,7 +14706,7 @@
         <v>1</v>
       </c>
       <c r="D1091">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1092">
@@ -14719,7 +14719,7 @@
         <v>1</v>
       </c>
       <c r="D1092">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1093">
@@ -14732,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="D1093">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1094">
@@ -14758,7 +14758,7 @@
         <v>1</v>
       </c>
       <c r="D1095">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1096">
@@ -14771,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="D1096">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1097">
@@ -14797,7 +14797,7 @@
         <v>1</v>
       </c>
       <c r="D1098">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1099">
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="D1099">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1100">
@@ -14836,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="D1101">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1102">
@@ -14849,7 +14849,7 @@
         <v>1</v>
       </c>
       <c r="D1102">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1103">
@@ -14893,7 +14893,7 @@
         <v>1</v>
       </c>
       <c r="D1105">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1106">
@@ -14925,7 +14925,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1108">
@@ -15081,14 +15081,14 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1120">
         <v>1</v>
       </c>
       <c r="D1120">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1121">
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="D1127">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1128">
@@ -15211,7 +15211,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1130">
@@ -15224,7 +15224,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1131">
@@ -15309,7 +15309,7 @@
         <v>1</v>
       </c>
       <c r="D1137">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1138">
@@ -15354,7 +15354,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1141">
@@ -15367,7 +15367,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1142">
@@ -15393,7 +15393,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1144">
@@ -15426,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="D1146">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1147">
@@ -15439,7 +15439,7 @@
         <v>1</v>
       </c>
       <c r="D1147">
-        <v>9.378223764419019E-05</v>
+        <v>9.378223764419021E-05</v>
       </c>
     </row>
     <row r="1148">
@@ -15478,7 +15478,7 @@
         <v>1003</v>
       </c>
       <c r="D1150">
-        <v>0.09406358435712277</v>
+        <v>0.09406358435712275</v>
       </c>
     </row>
     <row r="1151">
@@ -15492,41 +15492,6 @@
       </c>
       <c r="D1151">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="B1155" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
